--- a/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_HI.xlsx
+++ b/Multi-taxa_data/MollEchino/Ech_raw/Ech_div_HI.xlsx
@@ -1,18 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\claud\Documents\COMUNE\STUDIO.LAVORO\IMBRSea\Thesis\StatAnalysis\Multi-taxa_data\MollEchino\Ech_raw\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42C5B410-D035-48D3-92C5-FA71482F5FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="TOT" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="D1" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="D2" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="D3" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="S1" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="S2" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="S3" sheetId="7" r:id="rId10"/>
+    <sheet name="TOT" sheetId="1" r:id="rId1"/>
+    <sheet name="D1" sheetId="2" r:id="rId2"/>
+    <sheet name="D2" sheetId="3" r:id="rId3"/>
+    <sheet name="D3" sheetId="4" r:id="rId4"/>
+    <sheet name="S1" sheetId="5" r:id="rId5"/>
+    <sheet name="S2" sheetId="6" r:id="rId6"/>
+    <sheet name="S3" sheetId="7" r:id="rId7"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -469,20 +491,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -493,7 +517,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -509,66 +533,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -758,20 +758,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K112"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -803,10 +808,10 @@
         <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -829,10 +834,10 @@
         <v>17</v>
       </c>
       <c r="K2" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -855,10 +860,10 @@
         <v>17</v>
       </c>
       <c r="K3" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -881,10 +886,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
@@ -907,10 +912,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -933,10 +938,10 @@
         <v>17</v>
       </c>
       <c r="K6" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -959,10 +964,10 @@
         <v>17</v>
       </c>
       <c r="K7" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -985,10 +990,10 @@
         <v>17</v>
       </c>
       <c r="K8" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
@@ -1011,10 +1016,10 @@
         <v>17</v>
       </c>
       <c r="K9" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1037,10 +1042,10 @@
         <v>17</v>
       </c>
       <c r="K10" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -1063,10 +1068,10 @@
         <v>17</v>
       </c>
       <c r="K11" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -1089,10 +1094,10 @@
         <v>17</v>
       </c>
       <c r="K12" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>11</v>
       </c>
@@ -1115,10 +1120,10 @@
         <v>17</v>
       </c>
       <c r="K13" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1141,10 +1146,10 @@
         <v>17</v>
       </c>
       <c r="K14" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>11</v>
       </c>
@@ -1167,10 +1172,10 @@
         <v>17</v>
       </c>
       <c r="K15" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -1193,10 +1198,10 @@
         <v>17</v>
       </c>
       <c r="K16" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -1219,10 +1224,10 @@
         <v>33</v>
       </c>
       <c r="K17" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -1245,10 +1250,10 @@
         <v>35</v>
       </c>
       <c r="K18" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -1271,10 +1276,10 @@
         <v>17</v>
       </c>
       <c r="K19" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>11</v>
       </c>
@@ -1297,10 +1302,10 @@
         <v>17</v>
       </c>
       <c r="K20" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1323,10 +1328,10 @@
         <v>39</v>
       </c>
       <c r="K21" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
@@ -1349,10 +1354,10 @@
         <v>17</v>
       </c>
       <c r="K22" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>11</v>
       </c>
@@ -1375,10 +1380,10 @@
         <v>35</v>
       </c>
       <c r="K23" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>42</v>
       </c>
@@ -1401,10 +1406,10 @@
         <v>33</v>
       </c>
       <c r="K24" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>42</v>
       </c>
@@ -1427,10 +1432,10 @@
         <v>33</v>
       </c>
       <c r="K25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
@@ -1453,10 +1458,10 @@
         <v>33</v>
       </c>
       <c r="K26" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>42</v>
       </c>
@@ -1482,7 +1487,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>42</v>
       </c>
@@ -1505,10 +1510,10 @@
         <v>17</v>
       </c>
       <c r="K28" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>42</v>
       </c>
@@ -1534,7 +1539,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>42</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -1586,7 +1591,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>42</v>
       </c>
@@ -1609,10 +1614,10 @@
         <v>17</v>
       </c>
       <c r="K32" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -1635,10 +1640,10 @@
         <v>33</v>
       </c>
       <c r="K33" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>56</v>
       </c>
@@ -1661,10 +1666,10 @@
         <v>33</v>
       </c>
       <c r="K34" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>56</v>
       </c>
@@ -1687,10 +1692,10 @@
         <v>33</v>
       </c>
       <c r="K35" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>56</v>
       </c>
@@ -1716,7 +1721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>56</v>
       </c>
@@ -1742,7 +1747,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>56</v>
       </c>
@@ -1768,7 +1773,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
@@ -1791,10 +1796,10 @@
         <v>17</v>
       </c>
       <c r="K39" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
@@ -1817,10 +1822,10 @@
         <v>17</v>
       </c>
       <c r="K40" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>66</v>
       </c>
@@ -1843,10 +1848,10 @@
         <v>17</v>
       </c>
       <c r="K41" s="2">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>66</v>
       </c>
@@ -1869,10 +1874,10 @@
         <v>17</v>
       </c>
       <c r="K42" s="4">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>66</v>
       </c>
@@ -1895,10 +1900,10 @@
         <v>17</v>
       </c>
       <c r="K43" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>66</v>
       </c>
@@ -1921,10 +1926,10 @@
         <v>33</v>
       </c>
       <c r="K44" s="4">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>66</v>
       </c>
@@ -1947,10 +1952,10 @@
         <v>39</v>
       </c>
       <c r="K45" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>66</v>
       </c>
@@ -1973,10 +1978,10 @@
         <v>17</v>
       </c>
       <c r="K46" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>66</v>
       </c>
@@ -1999,10 +2004,10 @@
         <v>17</v>
       </c>
       <c r="K47" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>66</v>
       </c>
@@ -2025,10 +2030,10 @@
         <v>17</v>
       </c>
       <c r="K48" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>66</v>
       </c>
@@ -2051,10 +2056,10 @@
         <v>35</v>
       </c>
       <c r="K49" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
@@ -2077,10 +2082,10 @@
         <v>17</v>
       </c>
       <c r="K50" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>66</v>
       </c>
@@ -2103,10 +2108,10 @@
         <v>33</v>
       </c>
       <c r="K51" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>66</v>
       </c>
@@ -2129,10 +2134,10 @@
         <v>17</v>
       </c>
       <c r="K52" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>66</v>
       </c>
@@ -2155,10 +2160,10 @@
         <v>17</v>
       </c>
       <c r="K53" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>66</v>
       </c>
@@ -2181,10 +2186,10 @@
         <v>33</v>
       </c>
       <c r="K54" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>66</v>
       </c>
@@ -2207,10 +2212,10 @@
         <v>17</v>
       </c>
       <c r="K55" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>66</v>
       </c>
@@ -2233,10 +2238,10 @@
         <v>17</v>
       </c>
       <c r="K56" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>66</v>
       </c>
@@ -2262,7 +2267,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>66</v>
       </c>
@@ -2285,10 +2290,10 @@
         <v>33</v>
       </c>
       <c r="K58" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>66</v>
       </c>
@@ -2311,10 +2316,10 @@
         <v>33</v>
       </c>
       <c r="K59" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
@@ -2337,10 +2342,10 @@
         <v>17</v>
       </c>
       <c r="K60" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>66</v>
       </c>
@@ -2363,10 +2368,10 @@
         <v>17</v>
       </c>
       <c r="K61" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>66</v>
       </c>
@@ -2389,10 +2394,10 @@
         <v>17</v>
       </c>
       <c r="K62" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>66</v>
       </c>
@@ -2415,10 +2420,10 @@
         <v>33</v>
       </c>
       <c r="K63" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>66</v>
       </c>
@@ -2441,10 +2446,10 @@
         <v>33</v>
       </c>
       <c r="K64" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>66</v>
       </c>
@@ -2467,10 +2472,10 @@
         <v>33</v>
       </c>
       <c r="K65" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>66</v>
       </c>
@@ -2493,10 +2498,10 @@
         <v>33</v>
       </c>
       <c r="K66" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>66</v>
       </c>
@@ -2519,10 +2524,10 @@
         <v>33</v>
       </c>
       <c r="K67" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>66</v>
       </c>
@@ -2545,10 +2550,10 @@
         <v>33</v>
       </c>
       <c r="K68" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>66</v>
       </c>
@@ -2571,10 +2576,10 @@
         <v>33</v>
       </c>
       <c r="K69" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>66</v>
       </c>
@@ -2600,7 +2605,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>66</v>
       </c>
@@ -2623,10 +2628,10 @@
         <v>33</v>
       </c>
       <c r="K71" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>66</v>
       </c>
@@ -2649,10 +2654,10 @@
         <v>33</v>
       </c>
       <c r="K72" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>66</v>
       </c>
@@ -2675,10 +2680,10 @@
         <v>33</v>
       </c>
       <c r="K73" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>66</v>
       </c>
@@ -2701,10 +2706,10 @@
         <v>33</v>
       </c>
       <c r="K74" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>66</v>
       </c>
@@ -2730,7 +2735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>66</v>
       </c>
@@ -2753,10 +2758,10 @@
         <v>17</v>
       </c>
       <c r="K76" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>66</v>
       </c>
@@ -2779,10 +2784,10 @@
         <v>33</v>
       </c>
       <c r="K77" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>66</v>
       </c>
@@ -2805,10 +2810,10 @@
         <v>33</v>
       </c>
       <c r="K78" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
         <v>66</v>
       </c>
@@ -2831,10 +2836,10 @@
         <v>33</v>
       </c>
       <c r="K79" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>66</v>
       </c>
@@ -2857,10 +2862,10 @@
         <v>33</v>
       </c>
       <c r="K80" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
         <v>66</v>
       </c>
@@ -2883,10 +2888,10 @@
         <v>33</v>
       </c>
       <c r="K81" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
         <v>66</v>
       </c>
@@ -2909,10 +2914,10 @@
         <v>33</v>
       </c>
       <c r="K82" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
         <v>66</v>
       </c>
@@ -2935,10 +2940,10 @@
         <v>33</v>
       </c>
       <c r="K83" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>66</v>
       </c>
@@ -2964,7 +2969,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>66</v>
       </c>
@@ -2987,10 +2992,10 @@
         <v>33</v>
       </c>
       <c r="K85" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>66</v>
       </c>
@@ -3013,10 +3018,10 @@
         <v>33</v>
       </c>
       <c r="K86" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>66</v>
       </c>
@@ -3039,10 +3044,10 @@
         <v>17</v>
       </c>
       <c r="K87" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>115</v>
       </c>
@@ -3065,10 +3070,10 @@
         <v>35</v>
       </c>
       <c r="K88" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>115</v>
       </c>
@@ -3091,10 +3096,10 @@
         <v>17</v>
       </c>
       <c r="K89" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>115</v>
       </c>
@@ -3117,10 +3122,10 @@
         <v>33</v>
       </c>
       <c r="K90" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>115</v>
       </c>
@@ -3143,10 +3148,10 @@
         <v>17</v>
       </c>
       <c r="K91" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>115</v>
       </c>
@@ -3169,10 +3174,10 @@
         <v>33</v>
       </c>
       <c r="K92" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>115</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>115</v>
       </c>
@@ -3221,10 +3226,10 @@
         <v>33</v>
       </c>
       <c r="K94" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>115</v>
       </c>
@@ -3247,10 +3252,10 @@
         <v>17</v>
       </c>
       <c r="K95" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>115</v>
       </c>
@@ -3273,10 +3278,10 @@
         <v>17</v>
       </c>
       <c r="K96" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>115</v>
       </c>
@@ -3299,10 +3304,10 @@
         <v>17</v>
       </c>
       <c r="K97" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>115</v>
       </c>
@@ -3325,10 +3330,10 @@
         <v>17</v>
       </c>
       <c r="K98" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>115</v>
       </c>
@@ -3351,10 +3356,10 @@
         <v>17</v>
       </c>
       <c r="K99" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>115</v>
       </c>
@@ -3377,10 +3382,10 @@
         <v>17</v>
       </c>
       <c r="K100" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>115</v>
       </c>
@@ -3403,10 +3408,10 @@
         <v>17</v>
       </c>
       <c r="K101" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>115</v>
       </c>
@@ -3432,7 +3437,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>115</v>
       </c>
@@ -3458,7 +3463,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>115</v>
       </c>
@@ -3481,10 +3486,10 @@
         <v>17</v>
       </c>
       <c r="K104" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>115</v>
       </c>
@@ -3510,7 +3515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>115</v>
       </c>
@@ -3536,7 +3541,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>115</v>
       </c>
@@ -3559,10 +3564,10 @@
         <v>17</v>
       </c>
       <c r="K107" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>115</v>
       </c>
@@ -3585,10 +3590,10 @@
         <v>17</v>
       </c>
       <c r="K108" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>138</v>
       </c>
@@ -3611,10 +3616,10 @@
         <v>35</v>
       </c>
       <c r="K109" s="2">
-        <v>20.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>138</v>
       </c>
@@ -3637,10 +3642,10 @@
         <v>33</v>
       </c>
       <c r="K110" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>138</v>
       </c>
@@ -3663,10 +3668,10 @@
         <v>17</v>
       </c>
       <c r="K111" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>138</v>
       </c>
@@ -3689,28 +3694,29 @@
         <v>35</v>
       </c>
       <c r="K112" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -3733,7 +3739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -3744,7 +3750,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -3756,7 +3762,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -3767,13 +3773,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -3784,13 +3790,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>20</v>
       </c>
@@ -3801,13 +3807,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>21</v>
       </c>
@@ -3818,13 +3824,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
@@ -3835,18 +3841,18 @@
         <v>17</v>
       </c>
       <c r="G7" s="2">
-        <v>6.0</v>
-      </c>
-      <c r="I7" s="5">
+        <v>6</v>
+      </c>
+      <c r="I7" s="2">
         <f>SUM(I3:I6)</f>
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <f>sum(J3:J6)</f>
+      <c r="J7" s="2">
+        <f>SUM(J3:J6)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>23</v>
       </c>
@@ -3857,10 +3863,10 @@
         <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
@@ -3871,10 +3877,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
@@ -3885,10 +3891,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
@@ -3899,10 +3905,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
@@ -3913,10 +3919,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>28</v>
       </c>
@@ -3927,10 +3933,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>7.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>29</v>
       </c>
@@ -3941,10 +3947,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="3">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
@@ -3955,10 +3961,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>31</v>
       </c>
@@ -3969,10 +3975,10 @@
         <v>17</v>
       </c>
       <c r="G16" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3983,10 +3989,10 @@
         <v>146</v>
       </c>
       <c r="G17" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3997,10 +4003,10 @@
         <v>35</v>
       </c>
       <c r="G18" s="2">
-        <v>30.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -4011,10 +4017,10 @@
         <v>17</v>
       </c>
       <c r="G19" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -4025,10 +4031,10 @@
         <v>17</v>
       </c>
       <c r="G20" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -4039,10 +4045,10 @@
         <v>39</v>
       </c>
       <c r="G21" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>40</v>
       </c>
@@ -4053,10 +4059,10 @@
         <v>17</v>
       </c>
       <c r="G22" s="2">
-        <v>9.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>41</v>
       </c>
@@ -4067,28 +4073,29 @@
         <v>35</v>
       </c>
       <c r="G23" s="2">
-        <v>30.0</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4111,7 +4118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>43</v>
       </c>
@@ -4122,7 +4129,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -4134,7 +4141,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -4145,13 +4152,13 @@
         <v>33</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>46</v>
       </c>
@@ -4162,13 +4169,13 @@
         <v>33</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
@@ -4185,7 +4192,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>48</v>
       </c>
@@ -4196,13 +4203,13 @@
         <v>17</v>
       </c>
       <c r="G6" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>49</v>
       </c>
@@ -4219,7 +4226,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>51</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>53</v>
       </c>
@@ -4249,16 +4256,16 @@
       <c r="G9" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="2">
         <f>SUM(I4:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="5">
-        <f>sum(J4:J8)</f>
+      <c r="J9" s="2">
+        <f>SUM(J4:J8)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -4269,10 +4276,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>55</v>
       </c>
@@ -4283,28 +4290,29 @@
         <v>33</v>
       </c>
       <c r="G11" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4327,7 +4335,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>57</v>
       </c>
@@ -4338,7 +4346,7 @@
         <v>33</v>
       </c>
       <c r="G2" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -4350,7 +4358,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
@@ -4361,13 +4369,13 @@
         <v>33</v>
       </c>
       <c r="G3" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>59</v>
       </c>
@@ -4384,7 +4392,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>61</v>
       </c>
@@ -4401,7 +4409,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>63</v>
       </c>
@@ -4418,7 +4426,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>64</v>
       </c>
@@ -4429,13 +4437,13 @@
         <v>17</v>
       </c>
       <c r="G7" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>65</v>
       </c>
@@ -4446,28 +4454,29 @@
         <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -4490,7 +4499,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>69</v>
       </c>
@@ -4501,7 +4510,7 @@
         <v>17</v>
       </c>
       <c r="G2" s="2">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -4513,7 +4522,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>70</v>
       </c>
@@ -4524,13 +4533,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="4">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>71</v>
       </c>
@@ -4541,13 +4550,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>72</v>
       </c>
@@ -4558,13 +4567,13 @@
         <v>33</v>
       </c>
       <c r="G5" s="4">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>73</v>
       </c>
@@ -4575,13 +4584,13 @@
         <v>39</v>
       </c>
       <c r="G6" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>74</v>
       </c>
@@ -4592,13 +4601,13 @@
         <v>17</v>
       </c>
       <c r="G7" s="2">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>75</v>
       </c>
@@ -4609,18 +4618,18 @@
         <v>17</v>
       </c>
       <c r="G8" s="2">
-        <v>8.0</v>
-      </c>
-      <c r="I8" s="5">
+        <v>8</v>
+      </c>
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>76</v>
       </c>
@@ -4631,10 +4640,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>77</v>
       </c>
@@ -4645,10 +4654,10 @@
         <v>35</v>
       </c>
       <c r="G10" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>78</v>
       </c>
@@ -4659,10 +4668,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>79</v>
       </c>
@@ -4673,10 +4682,10 @@
         <v>33</v>
       </c>
       <c r="G12" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>80</v>
       </c>
@@ -4687,10 +4696,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>81</v>
       </c>
@@ -4701,10 +4710,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -4715,10 +4724,10 @@
         <v>33</v>
       </c>
       <c r="G15" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>83</v>
       </c>
@@ -4729,10 +4738,10 @@
         <v>17</v>
       </c>
       <c r="G16" s="4">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>84</v>
       </c>
@@ -4743,10 +4752,10 @@
         <v>17</v>
       </c>
       <c r="G17" s="2">
-        <v>6.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>85</v>
       </c>
@@ -4760,7 +4769,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>86</v>
       </c>
@@ -4771,10 +4780,10 @@
         <v>33</v>
       </c>
       <c r="G19" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>87</v>
       </c>
@@ -4785,10 +4794,10 @@
         <v>33</v>
       </c>
       <c r="G20" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>88</v>
       </c>
@@ -4799,10 +4808,10 @@
         <v>17</v>
       </c>
       <c r="G21" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>89</v>
       </c>
@@ -4813,10 +4822,10 @@
         <v>17</v>
       </c>
       <c r="G22" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>90</v>
       </c>
@@ -4827,10 +4836,10 @@
         <v>17</v>
       </c>
       <c r="G23" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>91</v>
       </c>
@@ -4841,10 +4850,10 @@
         <v>33</v>
       </c>
       <c r="G24" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>92</v>
       </c>
@@ -4855,10 +4864,10 @@
         <v>33</v>
       </c>
       <c r="G25" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>93</v>
       </c>
@@ -4869,10 +4878,10 @@
         <v>33</v>
       </c>
       <c r="G26" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>94</v>
       </c>
@@ -4883,10 +4892,10 @@
         <v>33</v>
       </c>
       <c r="G27" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>95</v>
       </c>
@@ -4897,10 +4906,10 @@
         <v>33</v>
       </c>
       <c r="G28" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>96</v>
       </c>
@@ -4911,10 +4920,10 @@
         <v>33</v>
       </c>
       <c r="G29" s="2">
-        <v>3.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>97</v>
       </c>
@@ -4925,10 +4934,10 @@
         <v>33</v>
       </c>
       <c r="G30" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>98</v>
       </c>
@@ -4942,7 +4951,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>99</v>
       </c>
@@ -4953,10 +4962,10 @@
         <v>33</v>
       </c>
       <c r="G32" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>100</v>
       </c>
@@ -4967,10 +4976,10 @@
         <v>33</v>
       </c>
       <c r="G33" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>101</v>
       </c>
@@ -4981,10 +4990,10 @@
         <v>33</v>
       </c>
       <c r="G34" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>102</v>
       </c>
@@ -4995,10 +5004,10 @@
         <v>33</v>
       </c>
       <c r="G35" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>102</v>
       </c>
@@ -5012,7 +5021,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>103</v>
       </c>
@@ -5023,10 +5032,10 @@
         <v>17</v>
       </c>
       <c r="G37" s="2">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>104</v>
       </c>
@@ -5037,10 +5046,10 @@
         <v>33</v>
       </c>
       <c r="G38" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>105</v>
       </c>
@@ -5051,10 +5060,10 @@
         <v>33</v>
       </c>
       <c r="G39" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>106</v>
       </c>
@@ -5065,10 +5074,10 @@
         <v>33</v>
       </c>
       <c r="G40" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>107</v>
       </c>
@@ -5079,10 +5088,10 @@
         <v>33</v>
       </c>
       <c r="G41" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>108</v>
       </c>
@@ -5093,10 +5102,10 @@
         <v>33</v>
       </c>
       <c r="G42" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>109</v>
       </c>
@@ -5107,10 +5116,10 @@
         <v>33</v>
       </c>
       <c r="G43" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>110</v>
       </c>
@@ -5121,10 +5130,10 @@
         <v>33</v>
       </c>
       <c r="G44" s="2">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>111</v>
       </c>
@@ -5138,7 +5147,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
@@ -5149,10 +5158,10 @@
         <v>33</v>
       </c>
       <c r="G46" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>113</v>
       </c>
@@ -5163,10 +5172,10 @@
         <v>33</v>
       </c>
       <c r="G47" s="2">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -5177,28 +5186,29 @@
         <v>17</v>
       </c>
       <c r="G48" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5221,7 +5231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>116</v>
       </c>
@@ -5232,7 +5242,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -5244,7 +5254,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>117</v>
       </c>
@@ -5255,13 +5265,13 @@
         <v>17</v>
       </c>
       <c r="G3" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>118</v>
       </c>
@@ -5272,13 +5282,13 @@
         <v>33</v>
       </c>
       <c r="G4" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>119</v>
       </c>
@@ -5289,13 +5299,13 @@
         <v>17</v>
       </c>
       <c r="G5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>120</v>
       </c>
@@ -5306,13 +5316,13 @@
         <v>33</v>
       </c>
       <c r="G6" s="2">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>121</v>
       </c>
@@ -5329,7 +5339,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>122</v>
       </c>
@@ -5340,18 +5350,18 @@
         <v>33</v>
       </c>
       <c r="G8" s="2">
-        <v>2.0</v>
-      </c>
-      <c r="I8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>123</v>
       </c>
@@ -5362,10 +5372,10 @@
         <v>17</v>
       </c>
       <c r="G9" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>124</v>
       </c>
@@ -5376,10 +5386,10 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>125</v>
       </c>
@@ -5390,10 +5400,10 @@
         <v>17</v>
       </c>
       <c r="G11" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>126</v>
       </c>
@@ -5404,10 +5414,10 @@
         <v>17</v>
       </c>
       <c r="G12" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>127</v>
       </c>
@@ -5418,10 +5428,10 @@
         <v>17</v>
       </c>
       <c r="G13" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>128</v>
       </c>
@@ -5432,10 +5442,10 @@
         <v>17</v>
       </c>
       <c r="G14" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>129</v>
       </c>
@@ -5446,10 +5456,10 @@
         <v>17</v>
       </c>
       <c r="G15" s="2">
-        <v>8.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>130</v>
       </c>
@@ -5463,7 +5473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>131</v>
       </c>
@@ -5477,7 +5487,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>132</v>
       </c>
@@ -5488,10 +5498,10 @@
         <v>17</v>
       </c>
       <c r="G18" s="2">
-        <v>10.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>133</v>
       </c>
@@ -5505,7 +5515,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>134</v>
       </c>
@@ -5519,7 +5529,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>136</v>
       </c>
@@ -5530,10 +5540,10 @@
         <v>17</v>
       </c>
       <c r="G21" s="2">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>137</v>
       </c>
@@ -5544,28 +5554,29 @@
         <v>17</v>
       </c>
       <c r="G22" s="2">
-        <v>8.0</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" min="10" max="10" width="15.88"/>
+    <col min="10" max="10" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -5585,7 +5596,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>139</v>
       </c>
@@ -5596,7 +5607,7 @@
         <v>35</v>
       </c>
       <c r="G2" s="2">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>6</v>
@@ -5608,7 +5619,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>140</v>
       </c>
@@ -5619,13 +5630,13 @@
         <v>33</v>
       </c>
       <c r="G3" s="2">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>141</v>
       </c>
@@ -5636,13 +5647,13 @@
         <v>17</v>
       </c>
       <c r="G4" s="2">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>141</v>
       </c>
@@ -5653,33 +5664,33 @@
         <v>35</v>
       </c>
       <c r="G5" s="2">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H7" s="2" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="8">
-      <c r="I8" s="5">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I8" s="2">
         <f>SUM(I3:I7)</f>
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <f>sum(J3:J7)</f>
+      <c r="J8" s="2">
+        <f>SUM(J3:J7)</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>